--- a/data/cluster_all_classification_metrix_3.xlsx
+++ b/data/cluster_all_classification_metrix_3.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Documents/github/UrbanClimate-ChinaHCE/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/github/UrbanClimate-ChinaHCE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2A56BE-9B2C-2C40-915C-BA5E6DB08CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F189BE-789C-F24A-9AE9-6FC6B450C7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -863,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="14"/>
